--- a/project/excel/alspac_data_catalogue_schema.xlsx
+++ b/project/excel/alspac_data_catalogue_schema.xlsx
@@ -4,15 +4,25 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedAlspacDataSet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NamedAlspacDataSetCollection" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NamedThing" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NamedAlspacDataSet1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="NamedAlspacDataSetCollection1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="NamedThing1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="AbstractDatasetPart" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AlspacDataCatalogue" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AlspacDataSetVersion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AlspacDataSetVersionFreeze" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DataDistribution" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NamedAlspacDataSet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NamedAlspacDataSetCollection" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NamedThing" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AbstractDatasetPart1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="AlspacDataCatalogue1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="AlspacDataSetVersion1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="AlspacDataSetVersionFreeze1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="DataDistribution1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="NamedAlspacDataSet1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NamedAlspacDataSetCollection1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="NamedThing1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +454,399 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>named_alspac_data_set_primary_email</t>
+          <t>data_distribution</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcid</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>primary_email</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>named_alspac_data_set_collection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>version_number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>version_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>has_previous_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_next_verion</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_current_version</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>freeze_number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>freeze_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>freeze_of_version</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>freeze_dataset</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>abstract_dataset_part</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>filetype</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>number_of_samples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>location_on_bc4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>location_on_bp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>code_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>namedAlspacDataSetCollection__entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -474,6 +861,336 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcid</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>named_alspac_data_set_collection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>version_number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>version_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_previous_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_next_verion</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_current_version</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>freeze_number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>freeze_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>freeze_of_version</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>freeze_dataset</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>abstract_dataset_part</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>filetype</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>number_of_samples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>location_on_bc4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>location_on_bp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>code_name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -494,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -530,13 +1247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,84 +1279,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>named_alspac_data_set_primary_email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>namedAlspacDataSetCollection__entries</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>data_distribution</t>
         </is>
       </c>
     </row>

--- a/project/excel/alspac_data_catalogue_schema.xlsx
+++ b/project/excel/alspac_data_catalogue_schema.xlsx
@@ -4,11 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NamedThing1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AlspacDataCatalogue" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NamedThing" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AlspacDataCatalogue1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NamedThing1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +438,16 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
         </is>
       </c>
     </row>
@@ -478,4 +490,86 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/alspac_data_catalogue_schema.xlsx
+++ b/project/excel/alspac_data_catalogue_schema.xlsx
@@ -4,13 +4,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AlspacDataCatalogue" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NamedThing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AlspacDataCatalogue1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NamedThing1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NamedAlspacDataSet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NamedThing" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AlspacDataCatalogue1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NamedAlspacDataSet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NamedThing1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +452,11 @@
           <t>primary_email</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>named_alspac_data_set_collection</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -457,6 +464,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -492,13 +550,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,13 +590,69 @@
           <t>primary_email</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>named_alspac_data_set_collection</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>landing_page</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/project/excel/alspac_data_catalogue_schema.xlsx
+++ b/project/excel/alspac_data_catalogue_schema.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,31 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_current_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>documentation_authors_orcids</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>main_publication</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>publications</t>
         </is>
       </c>
     </row>
@@ -607,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +669,31 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_current_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>documentation_authors_orcids</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>main_publication</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>publications</t>
         </is>
       </c>
     </row>

--- a/project/excel/alspac_data_catalogue_schema.xlsx
+++ b/project/excel/alspac_data_catalogue_schema.xlsx
@@ -4,15 +4,35 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="25" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AlspacDataCatalogue" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NamedAlspacDataSet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NamedThing" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="AlspacDataCatalogue1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="NamedAlspacDataSet1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="NamedThing1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="AlspacDataSetVersion" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AlspacDataSetVersionFreeze" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DataDistribution" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DatasetPart" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="KnownIssue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NamedAlspacDataset" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NamedThing" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Paper" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Person" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="QCKeyValue" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Script" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="UGKeyValue" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="AlspacDataCatalogue1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="AlspacDataSetVersion1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="AlspacDataSetVersionFreeze1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="DataDistribution1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="DatasetPart1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="KnownIssue1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="NamedAlspacDataset1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="NamedThing1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Paper1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Person1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="QCKeyValue1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Script1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="UGKeyValue1" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,6 +438,626 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>named_alspac_datasets</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>see_also</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>qc_key</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>qc_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>filetype</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ug_key</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ug_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_investigator_orcids</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>named_alspac_datasets</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>see_also</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>qc_description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>qc_parts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ug_parts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>version_of</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_current_version</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_previous_version</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_next_version</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_parts</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>known_issues</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_scripts</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_freezes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>linker_file_md5sum</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>freeze_size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>woc_file_md5sum</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>all_individuals_to_exclude_md5sum</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_current_freeze</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>freeze_number</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>freeze_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>previous_freeze</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>next_freeze</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>freeze_of_alspac_dataset_version</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>freeze_of_named_alspac_dataset</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>git_tag</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_parts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>filetype</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>number_of_participants</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>number_of_gene_expression_probe_values</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>number_of_variants</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>number_of_cpgs</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>required_files</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>belongsToContainer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>data_distributions</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -444,32 +1084,662 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>issue_description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>logged_by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>logged_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>qc_description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>qc_parts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ug_parts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>version_of</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_current_version</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_previous_version</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_next_version</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_parts</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>known_issues</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has_scripts</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has_freezes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>landing_page_url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>primary_investigator_orcids</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_current_version</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>versions</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>documentation_authors_orcids</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>main_publication_doi</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>publications_dois</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_catalog</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>derived_from</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>qc_key</t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>qc_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>filetype</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ug_key</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ug_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>linker_file_md5sum</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>freeze_size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>woc_file_md5sum</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>all_individuals_to_exclude_md5sum</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>is_current_freeze</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>freeze_number</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>freeze_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>previous_freeze</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>next_freeze</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>freeze_of_alspac_dataset_version</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>freeze_of_named_alspac_dataset</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>primary_email</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>git_tag</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_parts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>md5sum</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>filesize</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>named_alspac_data_set_collection</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
+          <t>filetype</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>number_of_participants</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>number_of_gene_expression_probe_values</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>number_of_variants</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>number_of_cpgs</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>required_files</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>belongsToContainer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,11 +1765,103 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>landing_page</t>
+          <t>data_distributions</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>issue_description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>logged_by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>logged_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>landing_page_url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>primary_investigator_orcids</t>
         </is>
       </c>
@@ -515,31 +1877,46 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>versions</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>primary_email</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>documentation_authors_orcids</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>main_publication</t>
-        </is>
-      </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>publications</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>main_publication_doi</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>publications_dois</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>in_catalog</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>derived_from</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -575,134 +1952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>primary_investigator_orcids</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>named_alspac_data_set_collection</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>landing_page</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>primary_investigator_orcids</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_current_version</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>documentation_authors_orcids</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>main_publication</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>publications</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
